--- a/data/TFEQ.xlsx
+++ b/data/TFEQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thier\Documents\R\Intro 2 Data Science\thierry_code\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thier\Documents\R\i2ds4scc_bookdown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BDBA9F-CCEA-4A48-B1A1-11B34632D020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12D321-0097-422F-AC68-AB06BD55B884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50010" yWindow="9225" windowWidth="10800" windowHeight="5685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="5310" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="452">
   <si>
     <t>Zone urbaine</t>
   </si>
@@ -588,372 +588,186 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>Où habitez-vous?</t>
-  </si>
-  <si>
     <t>Q3</t>
   </si>
   <si>
-    <t>Comment habitez-vous?</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
-    <t>N° Juge</t>
-  </si>
-  <si>
     <t>Q5</t>
   </si>
   <si>
     <t>Q6</t>
   </si>
   <si>
-    <t>Quelle est votre taille (en mètre)? (exemple: 1.63)</t>
-  </si>
-  <si>
     <t>Q7</t>
   </si>
   <si>
-    <t>Quel est votre poids?</t>
-  </si>
-  <si>
     <t>Q8</t>
   </si>
   <si>
-    <t>IMC</t>
-  </si>
-  <si>
     <t>Q9</t>
   </si>
   <si>
-    <t>Quelle est votre situation matrimoniale?</t>
-  </si>
-  <si>
     <t>Q10</t>
   </si>
   <si>
-    <t>Nombre de personnes vivant au foyer</t>
-  </si>
-  <si>
     <t>Q11</t>
   </si>
   <si>
-    <t>Dans quelle tranche de revenu se situe votre foyer?</t>
-  </si>
-  <si>
     <t>Q12</t>
   </si>
   <si>
-    <t>Dans quelle catégorie socioprofessionnelle êtes-vous?</t>
-  </si>
-  <si>
     <t>Q13</t>
   </si>
   <si>
-    <t>Quel est votre niveau d'études?</t>
-  </si>
-  <si>
     <t>Q14</t>
   </si>
   <si>
-    <t>1-	Lorsque je sens l'odeur d'un steak en train de cuire ou que je vois un morceau de viande bien juteux, il m'est très difficile de me reten</t>
-  </si>
-  <si>
     <t>Q15</t>
   </si>
   <si>
-    <t>2-	Je mange en général trop lorsque je sors en groupe, comme par exemple dans des réceptions ou des pique-niques.</t>
-  </si>
-  <si>
     <t>Q16</t>
   </si>
   <si>
-    <t>3-	J'ai habituellement tellement faim que je mange plus de 3 fois par jour.</t>
-  </si>
-  <si>
     <t>Q17</t>
   </si>
   <si>
-    <t>4-	Une fois que j'ai mangé ma ration de calories, je parviens habituellement facilement à ne plus manger.</t>
-  </si>
-  <si>
     <t>Q18</t>
   </si>
   <si>
-    <t>5-	Suivre un régime m'est difficile pour la simple et bonne raison que cela me donne trop faim.</t>
-  </si>
-  <si>
     <t>Q19</t>
   </si>
   <si>
-    <t>6-	Je me sers délibérément des petites portions pour pouvoir contrôler mon poids.</t>
-  </si>
-  <si>
     <t>Q20</t>
   </si>
   <si>
-    <t>7-	Parfois, ce que je mange est si bon, que je continue à manger même si je n'ai plus faim.</t>
-  </si>
-  <si>
     <t>Q21</t>
   </si>
   <si>
-    <t>8-	Comme j'ai souvent faim, je souhaiterais parfois, pendant que je mange, qu'un spécialiste me dise que j'ai assez mangé ou que je peux enc</t>
-  </si>
-  <si>
     <t>Q22</t>
   </si>
   <si>
-    <t>9-	Quand je suis inquiet(e), j'ai tendance à manger.</t>
-  </si>
-  <si>
     <t>Q23</t>
   </si>
   <si>
-    <t>10-	La vie est trop courte pour se soucier de régime.</t>
-  </si>
-  <si>
     <t>Q24</t>
   </si>
   <si>
-    <t>11-	Comme mon poids monte et descend, il m'est arrivé plus d'une fois de faire un régime amaigrissant.</t>
-  </si>
-  <si>
     <t>Q25</t>
   </si>
   <si>
-    <t>12-	J'ai souvent si faim qu'il faut alors à tout prix que je mange.</t>
-  </si>
-  <si>
     <t>Q26</t>
   </si>
   <si>
-    <t>13-	Lorsque je suis en compagnie de quelqu'un qui mange trop, je mange habituellement trop moi aussi.</t>
-  </si>
-  <si>
     <t>Q27</t>
   </si>
   <si>
-    <t>14-	J'ai une assez bonne idée du nombre de calories contenues dans les aliments courants.</t>
-  </si>
-  <si>
     <t>Q28</t>
   </si>
   <si>
-    <t>15-	Parfois quand je commence à manger, je ne peux plus m'arrêter.</t>
-  </si>
-  <si>
     <t>Q29</t>
   </si>
   <si>
-    <t>16-	Il ne m'est pas difficile de laisser quelque chose dans mon assiette.</t>
-  </si>
-  <si>
     <t>Q30</t>
   </si>
   <si>
-    <t>17-	A certains moments de la journée, je commence à avoir faim parce que j'ai pris l'habitude de manger à ce moment-là.</t>
-  </si>
-  <si>
     <t>Q31</t>
   </si>
   <si>
-    <t>18-	Lorsque je suis au régime, si je mange quelque chose qui ne m'est pas autorisé, je mange volontairement moins pendant un certain temps p</t>
-  </si>
-  <si>
     <t>Q32</t>
   </si>
   <si>
-    <t>19-	Le fait d'être en compagnie de quelqu'un qui mange me donne souvent suffisamment faim pour que je mange aussi.</t>
-  </si>
-  <si>
     <t>Q33</t>
   </si>
   <si>
-    <t>20-	Quand j'ai le cafard il m'arrive souvent de manger trop.</t>
-  </si>
-  <si>
     <t>Q34</t>
   </si>
   <si>
-    <t>21-	Manger est un plaisir trop grand pour que je le gâche en comptant les calories ou en surveillant mon poids.</t>
-  </si>
-  <si>
     <t>Q35</t>
   </si>
   <si>
-    <t>22-	Lorsque je vois un plat particulièrement savoureux, je me mets souvent à avoir si faim qu'il faut absolument que je mange tout de suite.</t>
-  </si>
-  <si>
     <t>Q36</t>
   </si>
   <si>
-    <t>23-	Je m'arrête souvent de manger sans être complètement rassasié(e), pour limiter délibérément la quantité d'aliments que je mange.</t>
-  </si>
-  <si>
     <t>Q37</t>
   </si>
   <si>
-    <t>24-	J'ai tellement faim que j'ai souvent l'impression que mon estomac est comme un gouffre.</t>
-  </si>
-  <si>
     <t>Q38</t>
   </si>
   <si>
-    <t>25-	Mon poids n'a pratiquement pas changé ces dix dernières années.</t>
-  </si>
-  <si>
     <t>Q39</t>
   </si>
   <si>
-    <t>26-	Comme j'ai toujours faim, il m'est difficile d'arrêter de manger avant d'avoir fini mon assiette.</t>
-  </si>
-  <si>
     <t>Q40</t>
   </si>
   <si>
-    <t>27-	Quand je me sens seul(e), je me console en mangeant.</t>
-  </si>
-  <si>
     <t>Q41</t>
   </si>
   <si>
-    <t>28-	Je me retiens volontairement de manger pendant les repas pour ne pas prendre de poids.</t>
-  </si>
-  <si>
     <t>Q42</t>
   </si>
   <si>
-    <t>29-	Je me mets parfois à avoir très faim, tard le soir ou pendant la nuit.</t>
-  </si>
-  <si>
     <t>Q43</t>
   </si>
   <si>
-    <t>30-	Je mange ce que je veux, quand je le veux.</t>
-  </si>
-  <si>
     <t>Q44</t>
   </si>
   <si>
-    <t>31-	Sans même y penser, je prends beaucoup de temps pour manger.</t>
-  </si>
-  <si>
     <t>Q45</t>
   </si>
   <si>
-    <t>32-	Je compte délibérément les calories pour contrôler mon poids.</t>
-  </si>
-  <si>
     <t>Q46</t>
   </si>
   <si>
-    <t>33-	Je ne mange pas certains aliments parce qu'ils me font grossir.</t>
-  </si>
-  <si>
     <t>Q47</t>
   </si>
   <si>
-    <t>34- J'ai toujours suffisamment faim pour manger n'importe quand.</t>
-  </si>
-  <si>
     <t>Q48</t>
   </si>
   <si>
-    <t>35-	Je fais très attention aux changements de ma silhouette.</t>
-  </si>
-  <si>
     <t>Q49</t>
   </si>
   <si>
-    <t>36-	Lorsque je suis au régime, si je mange un aliment qui ne m'est pas autorisé, il m'arrive souvent de "m'empiffrer" et je mange alors d'au</t>
-  </si>
-  <si>
     <t>Q50</t>
   </si>
   <si>
-    <t>37-	A quelle fréquence faites-vous un régime délibérément pour contrôler votre poids?</t>
-  </si>
-  <si>
     <t>Q51</t>
   </si>
   <si>
-    <t>38-	Une variation de poids de 2.5kg modifierait-elle votre façon de vivre?</t>
-  </si>
-  <si>
     <t>Q52</t>
   </si>
   <si>
-    <t>39-	A quelle fréquence avez-vous faim?</t>
-  </si>
-  <si>
     <t>Q53</t>
   </si>
   <si>
-    <t>40-	Le fait que vous vous sentiez coupable de trop manger vous aide-t-il à contrôler votre alimentation?</t>
-  </si>
-  <si>
     <t>Q54</t>
   </si>
   <si>
-    <t>41-	A quel point vous serait-il difficile de vous arrêter de manger au milieu du repas et de ne pas manger pendant les 4 heures suivantes? C</t>
-  </si>
-  <si>
     <t>Q55</t>
   </si>
   <si>
-    <t>42-	A quel point êtes-vous conscient(e) de ce que vous mangez?</t>
-  </si>
-  <si>
     <t>Q56</t>
   </si>
   <si>
-    <t>43-	A quelle fréquence évitez-vous de stocker des aliments tentants?</t>
-  </si>
-  <si>
     <t>Q57</t>
   </si>
   <si>
-    <t>44-	Quand vous faites les courses, avez-vous tendance à acheter des aliments "basses calories"?</t>
-  </si>
-  <si>
     <t>Q58</t>
   </si>
   <si>
-    <t>45-	Mangez-vous raisonnablement en présence d'autres gens et vous "empiffrez-vous" quand vous êtes seul(e)?</t>
-  </si>
-  <si>
     <t>Q59</t>
   </si>
   <si>
-    <t>46-	Avez-vous tendance à manger délibérément lentement dans le but de manger moins?</t>
-  </si>
-  <si>
     <t>Q60</t>
   </si>
   <si>
-    <t>47-	A quelle fréquence vous passez-vous de dessert parce que vous n'avez plus faim?</t>
-  </si>
-  <si>
     <t>Q61</t>
   </si>
   <si>
-    <t>48-	Avez-vous tendance à manger délibérément moins que vous le voulez?</t>
-  </si>
-  <si>
     <t>Q62</t>
   </si>
   <si>
-    <t>49-	Vous arrive-t-il de vous "goinfrez", même si vous n'avez pas faim?</t>
-  </si>
-  <si>
-    <t>50-	Sur une échelle de 0 à 5, où 0 signifie "pas de restriction de l'alimentation" (c'est-à-dire, vous mangez ce que vous voulez quand vous</t>
-  </si>
-  <si>
-    <t>51-	Dans quelle mesure l'affirmation suivante décrit-elle votre comportement alimentaire? "je me met au régime le matin, mais en raison des</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -1534,9 +1348,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Original Questions (French)</t>
   </si>
   <si>
     <t>Full Question</t>
@@ -1749,10 +1560,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:F63" totalsRowShown="0" headerRowDxfId="0">
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:E63" totalsRowShown="0" headerRowDxfId="0">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Original Questions (French)"/>
     <tableColumn id="3" xr3:uid="{84AFBCBA-8568-47B0-894C-3B0A58C3AA8F}" name="Name"/>
     <tableColumn id="9" xr3:uid="{E08AE0A1-885F-4706-9A2B-F965D1F4D676}" name="Direction"/>
     <tableColumn id="8" xr3:uid="{816321DB-4333-411C-B3CB-DAB0A24D4C81}" name="Value"/>
@@ -2067,184 +1877,184 @@
         <v>186</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="X1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY1" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA1" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG1" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI1" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="BJ1" s="5" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.45">
@@ -22370,1184 +22180,994 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="122.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="222.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="210.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="211.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="222.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="210.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="211.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>186</v>
       </c>
       <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" t="s">
+        <v>437</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" t="s">
+        <v>437</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" t="s">
+        <v>437</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" t="s">
+        <v>437</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" t="s">
+        <v>437</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" t="s">
+        <v>437</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>427</v>
+      </c>
+      <c r="C34" t="s">
+        <v>437</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" t="s">
+        <v>414</v>
+      </c>
+      <c r="C37" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" t="s">
+        <v>437</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" t="s">
+        <v>430</v>
+      </c>
+      <c r="C41" t="s">
+        <v>437</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42" t="s">
+        <v>437</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44" t="s">
+        <v>437</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C45" t="s">
+        <v>437</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>431</v>
+      </c>
+      <c r="C46" t="s">
+        <v>437</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47" t="s">
+        <v>437</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" t="s">
+        <v>437</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>398</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" t="s">
+        <v>399</v>
+      </c>
+      <c r="C50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" t="s">
+        <v>438</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" t="s">
+        <v>400</v>
+      </c>
+      <c r="C52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53" t="s">
+        <v>438</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" t="s">
+        <v>401</v>
+      </c>
+      <c r="C54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" t="s">
+        <v>402</v>
+      </c>
+      <c r="C55" t="s">
+        <v>438</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" t="s">
+        <v>418</v>
+      </c>
+      <c r="C57" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" t="s">
+        <v>438</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" t="s">
+        <v>434</v>
+      </c>
+      <c r="C59" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" t="s">
+        <v>405</v>
+      </c>
+      <c r="C60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D13" t="s">
-        <v>499</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" t="s">
-        <v>447</v>
-      </c>
-      <c r="D14" t="s">
-        <v>499</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" t="s">
-        <v>483</v>
-      </c>
-      <c r="D15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" t="s">
-        <v>449</v>
-      </c>
-      <c r="D16" t="s">
-        <v>499</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" t="s">
-        <v>484</v>
-      </c>
-      <c r="D17" t="s">
-        <v>499</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" t="s">
-        <v>450</v>
-      </c>
-      <c r="D18" t="s">
-        <v>499</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" t="s">
-        <v>469</v>
-      </c>
-      <c r="D19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" t="s">
-        <v>485</v>
-      </c>
-      <c r="D20" t="s">
-        <v>499</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" t="s">
-        <v>470</v>
-      </c>
-      <c r="D21" t="s">
-        <v>499</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" t="s">
-        <v>448</v>
-      </c>
-      <c r="D22" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" t="s">
-        <v>471</v>
-      </c>
-      <c r="D23" t="s">
-        <v>499</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" t="s">
-        <v>486</v>
-      </c>
-      <c r="D24" t="s">
-        <v>499</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" t="s">
-        <v>472</v>
-      </c>
-      <c r="D25" t="s">
-        <v>499</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" t="s">
-        <v>451</v>
-      </c>
-      <c r="D26" t="s">
-        <v>499</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" t="s">
-        <v>473</v>
-      </c>
-      <c r="D27" t="s">
-        <v>499</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28" t="s">
-        <v>474</v>
-      </c>
-      <c r="D28" t="s">
-        <v>499</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B29" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" t="s">
-        <v>487</v>
-      </c>
-      <c r="D29" t="s">
-        <v>499</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>244</v>
       </c>
-      <c r="C30" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" t="s">
-        <v>499</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B61" t="s">
+        <v>419</v>
+      </c>
+      <c r="C61" t="s">
+        <v>438</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>246</v>
       </c>
-      <c r="C31" t="s">
-        <v>488</v>
-      </c>
-      <c r="D31" t="s">
-        <v>499</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C32" t="s">
-        <v>475</v>
-      </c>
-      <c r="D32" t="s">
-        <v>499</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C33" t="s">
-        <v>453</v>
-      </c>
-      <c r="D33" t="s">
-        <v>499</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" t="s">
-        <v>489</v>
-      </c>
-      <c r="D34" t="s">
-        <v>499</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C35" t="s">
-        <v>454</v>
-      </c>
-      <c r="D35" t="s">
-        <v>499</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>251</v>
-      </c>
-      <c r="B36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" t="s">
-        <v>490</v>
-      </c>
-      <c r="D36" t="s">
-        <v>499</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D37" t="s">
-        <v>499</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" t="s">
-        <v>491</v>
-      </c>
-      <c r="D38" t="s">
-        <v>499</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" t="s">
-        <v>477</v>
-      </c>
-      <c r="D39" t="s">
-        <v>499</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>259</v>
-      </c>
-      <c r="B40" t="s">
-        <v>264</v>
-      </c>
-      <c r="C40" t="s">
-        <v>455</v>
-      </c>
-      <c r="D40" t="s">
-        <v>499</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>261</v>
-      </c>
-      <c r="B41" t="s">
-        <v>266</v>
-      </c>
-      <c r="C41" t="s">
-        <v>492</v>
-      </c>
-      <c r="D41" t="s">
-        <v>499</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>263</v>
-      </c>
-      <c r="B42" t="s">
-        <v>268</v>
-      </c>
-      <c r="C42" t="s">
-        <v>456</v>
-      </c>
-      <c r="D42" t="s">
-        <v>499</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>265</v>
-      </c>
-      <c r="B43" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" t="s">
-        <v>478</v>
-      </c>
-      <c r="D43" t="s">
-        <v>499</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" t="s">
-        <v>272</v>
-      </c>
-      <c r="C44" t="s">
-        <v>457</v>
-      </c>
-      <c r="D44" t="s">
-        <v>499</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B45" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" t="s">
-        <v>458</v>
-      </c>
-      <c r="D45" t="s">
-        <v>499</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>271</v>
-      </c>
-      <c r="B46" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" t="s">
-        <v>493</v>
-      </c>
-      <c r="D46" t="s">
-        <v>499</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" t="s">
-        <v>278</v>
-      </c>
-      <c r="C47" t="s">
-        <v>459</v>
-      </c>
-      <c r="D47" t="s">
-        <v>499</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48" t="s">
-        <v>280</v>
-      </c>
-      <c r="C48" t="s">
-        <v>479</v>
-      </c>
-      <c r="D48" t="s">
-        <v>499</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>277</v>
-      </c>
-      <c r="B49" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" t="s">
-        <v>460</v>
-      </c>
-      <c r="D49" t="s">
-        <v>500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>279</v>
-      </c>
-      <c r="B50" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" t="s">
-        <v>461</v>
-      </c>
-      <c r="D50" t="s">
-        <v>500</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>281</v>
-      </c>
-      <c r="B51" t="s">
-        <v>286</v>
-      </c>
-      <c r="C51" t="s">
-        <v>494</v>
-      </c>
-      <c r="D51" t="s">
-        <v>500</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" t="s">
-        <v>462</v>
-      </c>
-      <c r="D52" t="s">
-        <v>500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>285</v>
-      </c>
-      <c r="B53" t="s">
-        <v>290</v>
-      </c>
-      <c r="C53" t="s">
-        <v>495</v>
-      </c>
-      <c r="D53" t="s">
-        <v>500</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>287</v>
-      </c>
-      <c r="B54" t="s">
-        <v>292</v>
-      </c>
-      <c r="C54" t="s">
-        <v>463</v>
-      </c>
-      <c r="D54" t="s">
-        <v>500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>289</v>
-      </c>
-      <c r="B55" t="s">
-        <v>294</v>
-      </c>
-      <c r="C55" t="s">
-        <v>464</v>
-      </c>
-      <c r="D55" t="s">
-        <v>500</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>291</v>
-      </c>
-      <c r="B56" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" t="s">
-        <v>465</v>
-      </c>
-      <c r="D56" t="s">
-        <v>500</v>
-      </c>
-      <c r="E56" s="3">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>293</v>
-      </c>
-      <c r="B57" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57" t="s">
-        <v>480</v>
-      </c>
-      <c r="D57" t="s">
-        <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>295</v>
-      </c>
-      <c r="B58" t="s">
-        <v>300</v>
-      </c>
-      <c r="C58" t="s">
-        <v>466</v>
-      </c>
-      <c r="D58" t="s">
-        <v>501</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>297</v>
-      </c>
-      <c r="B59" t="s">
-        <v>302</v>
-      </c>
-      <c r="C59" t="s">
-        <v>496</v>
-      </c>
-      <c r="D59" t="s">
-        <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>299</v>
-      </c>
-      <c r="B60" t="s">
-        <v>304</v>
-      </c>
-      <c r="C60" t="s">
-        <v>467</v>
-      </c>
-      <c r="D60" t="s">
-        <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>301</v>
-      </c>
-      <c r="B61" t="s">
-        <v>306</v>
-      </c>
-      <c r="C61" t="s">
-        <v>481</v>
-      </c>
-      <c r="D61" t="s">
-        <v>500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>303</v>
-      </c>
-      <c r="B62" t="s">
-        <v>307</v>
-      </c>
-      <c r="C62" t="s">
-        <v>468</v>
-      </c>
-      <c r="D62" t="s">
-        <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>305</v>
-      </c>
       <c r="B63" t="s">
-        <v>308</v>
+        <v>420</v>
       </c>
       <c r="C63" t="s">
-        <v>482</v>
-      </c>
-      <c r="D63" t="s">
-        <v>500</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s">
-        <v>379</v>
+        <v>438</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -23564,7 +23184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E7BF39-2536-4AEE-968A-3358CEB4DA2C}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:D173"/>
     </sheetView>
   </sheetViews>
@@ -23578,16 +23198,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -23601,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -23615,7 +23235,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -23629,7 +23249,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -23643,7 +23263,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -23657,12 +23277,12 @@
         <v>32</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B7" s="14">
         <v>1</v>
@@ -23671,12 +23291,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B8" s="14">
         <v>2</v>
@@ -23685,12 +23305,12 @@
         <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B9" s="14">
         <v>3</v>
@@ -23699,12 +23319,12 @@
         <v>34</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B10" s="14">
         <v>4</v>
@@ -23713,12 +23333,12 @@
         <v>59</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B11" s="14">
         <v>5</v>
@@ -23727,12 +23347,12 @@
         <v>62</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B12" s="14">
         <v>6</v>
@@ -23741,12 +23361,12 @@
         <v>102</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B13" s="14">
         <v>7</v>
@@ -23755,12 +23375,12 @@
         <v>135</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
@@ -23769,12 +23389,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -23783,12 +23403,12 @@
         <v>51</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B16" s="14">
         <v>3</v>
@@ -23797,12 +23417,12 @@
         <v>22</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B17" s="14">
         <v>4</v>
@@ -23811,12 +23431,12 @@
         <v>90</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
@@ -23825,12 +23445,12 @@
         <v>5</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -23839,12 +23459,12 @@
         <v>23</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B20" s="14">
         <v>3</v>
@@ -23853,12 +23473,12 @@
         <v>35</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B21" s="14">
         <v>4</v>
@@ -23867,12 +23487,12 @@
         <v>44</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B22" s="14">
         <v>5</v>
@@ -23881,12 +23501,12 @@
         <v>52</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B23" s="14">
         <v>6</v>
@@ -23895,12 +23515,12 @@
         <v>63</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B24" s="14">
         <v>7</v>
@@ -23909,12 +23529,12 @@
         <v>68</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B25" s="14">
         <v>8</v>
@@ -23923,12 +23543,12 @@
         <v>70</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B26" s="14">
         <v>9</v>
@@ -23937,12 +23557,12 @@
         <v>72</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B27" s="14">
         <v>10</v>
@@ -23951,12 +23571,12 @@
         <v>79</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B28" s="14">
         <v>11</v>
@@ -23965,12 +23585,12 @@
         <v>88</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B29" s="14">
         <v>12</v>
@@ -23979,12 +23599,12 @@
         <v>100</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B30" s="14">
         <v>13</v>
@@ -23993,12 +23613,12 @@
         <v>113</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B31" s="14">
         <v>14</v>
@@ -24007,12 +23627,12 @@
         <v>115</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B32" s="14">
         <v>15</v>
@@ -24021,12 +23641,12 @@
         <v>121</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B33" s="14">
         <v>16</v>
@@ -24035,12 +23655,12 @@
         <v>143</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B34" s="14">
         <v>17</v>
@@ -24049,12 +23669,12 @@
         <v>166</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B35" s="14">
         <v>1</v>
@@ -24063,12 +23683,12 @@
         <v>6</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B36" s="14">
         <v>2</v>
@@ -24077,12 +23697,12 @@
         <v>36</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>506</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B37" s="14">
         <v>3</v>
@@ -24091,12 +23711,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B38" s="14">
         <v>4</v>
@@ -24105,12 +23725,12 @@
         <v>64</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B39" s="14">
         <v>5</v>
@@ -24119,12 +23739,12 @@
         <v>80</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B40" s="14">
         <v>6</v>
@@ -24133,12 +23753,12 @@
         <v>93</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B41" s="14">
         <v>0</v>
@@ -24147,12 +23767,12 @@
         <v>7</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B42" s="14">
         <v>1</v>
@@ -24161,12 +23781,12 @@
         <v>8</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B43" s="14">
         <v>0</v>
@@ -24175,12 +23795,12 @@
         <v>7</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B44" s="14">
         <v>1</v>
@@ -24189,12 +23809,12 @@
         <v>8</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B45" s="14">
         <v>0</v>
@@ -24203,12 +23823,12 @@
         <v>7</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B46" s="14">
         <v>1</v>
@@ -24217,12 +23837,12 @@
         <v>8</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B47" s="14">
         <v>0</v>
@@ -24231,12 +23851,12 @@
         <v>7</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B48" s="14">
         <v>1</v>
@@ -24245,12 +23865,12 @@
         <v>8</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B49" s="14">
         <v>0</v>
@@ -24259,12 +23879,12 @@
         <v>7</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B50" s="14">
         <v>1</v>
@@ -24273,12 +23893,12 @@
         <v>8</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B51" s="14">
         <v>0</v>
@@ -24287,12 +23907,12 @@
         <v>7</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B52" s="14">
         <v>1</v>
@@ -24301,12 +23921,12 @@
         <v>8</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B53" s="14">
         <v>0</v>
@@ -24315,12 +23935,12 @@
         <v>7</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B54" s="14">
         <v>1</v>
@@ -24329,12 +23949,12 @@
         <v>8</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B55" s="14">
         <v>0</v>
@@ -24343,12 +23963,12 @@
         <v>7</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B56" s="14">
         <v>1</v>
@@ -24357,12 +23977,12 @@
         <v>8</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B57" s="14">
         <v>0</v>
@@ -24371,12 +23991,12 @@
         <v>7</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B58" s="14">
         <v>1</v>
@@ -24385,12 +24005,12 @@
         <v>8</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B59" s="14">
         <v>0</v>
@@ -24399,12 +24019,12 @@
         <v>7</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B60" s="14">
         <v>1</v>
@@ -24413,12 +24033,12 @@
         <v>8</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B61" s="14">
         <v>0</v>
@@ -24427,12 +24047,12 @@
         <v>7</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B62" s="14">
         <v>1</v>
@@ -24441,12 +24061,12 @@
         <v>8</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B63" s="14">
         <v>0</v>
@@ -24455,12 +24075,12 @@
         <v>7</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B64" s="14">
         <v>1</v>
@@ -24469,12 +24089,12 @@
         <v>8</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B65" s="14">
         <v>0</v>
@@ -24483,12 +24103,12 @@
         <v>7</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B66" s="14">
         <v>1</v>
@@ -24497,12 +24117,12 @@
         <v>8</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B67" s="14">
         <v>0</v>
@@ -24511,12 +24131,12 @@
         <v>7</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B68" s="14">
         <v>1</v>
@@ -24525,12 +24145,12 @@
         <v>8</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B69" s="14">
         <v>0</v>
@@ -24539,12 +24159,12 @@
         <v>7</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B70" s="14">
         <v>1</v>
@@ -24553,12 +24173,12 @@
         <v>8</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B71" s="14">
         <v>0</v>
@@ -24567,12 +24187,12 @@
         <v>7</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B72" s="14">
         <v>1</v>
@@ -24581,12 +24201,12 @@
         <v>8</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B73" s="14">
         <v>0</v>
@@ -24595,12 +24215,12 @@
         <v>7</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B74" s="14">
         <v>1</v>
@@ -24609,12 +24229,12 @@
         <v>8</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B75" s="14">
         <v>0</v>
@@ -24623,12 +24243,12 @@
         <v>7</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B76" s="14">
         <v>1</v>
@@ -24637,12 +24257,12 @@
         <v>8</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B77" s="14">
         <v>0</v>
@@ -24651,12 +24271,12 @@
         <v>7</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B78" s="14">
         <v>1</v>
@@ -24665,12 +24285,12 @@
         <v>8</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B79" s="14">
         <v>0</v>
@@ -24679,12 +24299,12 @@
         <v>7</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B80" s="14">
         <v>1</v>
@@ -24693,12 +24313,12 @@
         <v>8</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B81" s="14">
         <v>0</v>
@@ -24707,12 +24327,12 @@
         <v>7</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B82" s="14">
         <v>1</v>
@@ -24721,12 +24341,12 @@
         <v>8</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B83" s="14">
         <v>0</v>
@@ -24735,12 +24355,12 @@
         <v>7</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B84" s="14">
         <v>1</v>
@@ -24749,12 +24369,12 @@
         <v>8</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B85" s="14">
         <v>0</v>
@@ -24763,12 +24383,12 @@
         <v>7</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B86" s="14">
         <v>1</v>
@@ -24777,12 +24397,12 @@
         <v>8</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B87" s="14">
         <v>0</v>
@@ -24791,12 +24411,12 @@
         <v>7</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B88" s="14">
         <v>1</v>
@@ -24805,12 +24425,12 @@
         <v>8</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B89" s="14">
         <v>0</v>
@@ -24819,12 +24439,12 @@
         <v>7</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B90" s="14">
         <v>1</v>
@@ -24833,12 +24453,12 @@
         <v>8</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B91" s="14">
         <v>0</v>
@@ -24847,12 +24467,12 @@
         <v>7</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B92" s="14">
         <v>1</v>
@@ -24861,12 +24481,12 @@
         <v>8</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B93" s="14">
         <v>0</v>
@@ -24875,12 +24495,12 @@
         <v>7</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B94" s="14">
         <v>1</v>
@@ -24889,12 +24509,12 @@
         <v>8</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="B95" s="14">
         <v>0</v>
@@ -24903,12 +24523,12 @@
         <v>7</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="B96" s="14">
         <v>1</v>
@@ -24917,12 +24537,12 @@
         <v>8</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="B97" s="14">
         <v>0</v>
@@ -24931,12 +24551,12 @@
         <v>7</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="13" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="B98" s="14">
         <v>1</v>
@@ -24945,12 +24565,12 @@
         <v>8</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="13" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B99" s="14">
         <v>0</v>
@@ -24959,12 +24579,12 @@
         <v>7</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="13" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B100" s="14">
         <v>1</v>
@@ -24973,12 +24593,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="13" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="B101" s="14">
         <v>0</v>
@@ -24987,12 +24607,12 @@
         <v>7</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="13" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="B102" s="14">
         <v>1</v>
@@ -25001,12 +24621,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="B103" s="14">
         <v>0</v>
@@ -25015,12 +24635,12 @@
         <v>7</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="B104" s="14">
         <v>1</v>
@@ -25029,12 +24649,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="13" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="B105" s="14">
         <v>0</v>
@@ -25043,12 +24663,12 @@
         <v>7</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="B106" s="14">
         <v>1</v>
@@ -25057,12 +24677,12 @@
         <v>8</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="13" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="B107" s="14">
         <v>0</v>
@@ -25071,12 +24691,12 @@
         <v>7</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="13" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="B108" s="14">
         <v>1</v>
@@ -25085,12 +24705,12 @@
         <v>8</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="B109" s="14">
         <v>0</v>
@@ -25099,12 +24719,12 @@
         <v>7</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="B110" s="14">
         <v>1</v>
@@ -25113,12 +24733,12 @@
         <v>8</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="B111" s="14">
         <v>0</v>
@@ -25127,12 +24747,12 @@
         <v>7</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="B112" s="14">
         <v>1</v>
@@ -25141,12 +24761,12 @@
         <v>8</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="B113" s="14">
         <v>1</v>
@@ -25155,12 +24775,12 @@
         <v>9</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="B114" s="14">
         <v>2</v>
@@ -25169,12 +24789,12 @@
         <v>54</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="B115" s="14">
         <v>3</v>
@@ -25183,12 +24803,12 @@
         <v>45</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="13" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="B116" s="14">
         <v>4</v>
@@ -25197,12 +24817,12 @@
         <v>107</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B117" s="14">
         <v>1</v>
@@ -25211,12 +24831,12 @@
         <v>10</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="13" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B118" s="14">
         <v>2</v>
@@ -25225,12 +24845,12 @@
         <v>39</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B119" s="14">
         <v>3</v>
@@ -25239,12 +24859,12 @@
         <v>27</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="13" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B120" s="14">
         <v>4</v>
@@ -25253,12 +24873,12 @@
         <v>24</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B121" s="14">
         <v>1</v>
@@ -25267,12 +24887,12 @@
         <v>49</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>423</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B122" s="14">
         <v>2</v>
@@ -25281,12 +24901,12 @@
         <v>11</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="13" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B123" s="14">
         <v>3</v>
@@ -25295,12 +24915,12 @@
         <v>37</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="13" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B124" s="14">
         <v>4</v>
@@ -25309,12 +24929,12 @@
         <v>26</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="13" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="B125" s="14">
         <v>1</v>
@@ -25323,12 +24943,12 @@
         <v>12</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="13" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="B126" s="14">
         <v>2</v>
@@ -25337,12 +24957,12 @@
         <v>15</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="13" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="B127" s="14">
         <v>3</v>
@@ -25351,12 +24971,12 @@
         <v>25</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="13" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="B128" s="14">
         <v>4</v>
@@ -25365,12 +24985,12 @@
         <v>107</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="13" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B129" s="14">
         <v>1</v>
@@ -25379,12 +24999,12 @@
         <v>13</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="13" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B130" s="14">
         <v>2</v>
@@ -25393,12 +25013,12 @@
         <v>55</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="13" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B131" s="14">
         <v>3</v>
@@ -25407,12 +25027,12 @@
         <v>38</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="13" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B132" s="14">
         <v>4</v>
@@ -25421,26 +25041,26 @@
         <v>60</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="13" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="B133" s="14">
         <v>1</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="13" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="B134" s="14">
         <v>2</v>
@@ -25449,12 +25069,12 @@
         <v>39</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="13" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="B135" s="14">
         <v>3</v>
@@ -25463,12 +25083,12 @@
         <v>27</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="13" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="B136" s="14">
         <v>4</v>
@@ -25477,12 +25097,12 @@
         <v>14</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="13" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B137" s="14">
         <v>1</v>
@@ -25491,12 +25111,12 @@
         <v>40</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="13" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B138" s="14">
         <v>2</v>
@@ -25505,12 +25125,12 @@
         <v>15</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="13" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B139" s="14">
         <v>3</v>
@@ -25519,12 +25139,12 @@
         <v>45</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="13" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B140" s="14">
         <v>4</v>
@@ -25533,12 +25153,12 @@
         <v>26</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="13" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B141" s="14">
         <v>1</v>
@@ -25547,12 +25167,12 @@
         <v>10</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="13" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B142" s="14">
         <v>2</v>
@@ -25561,12 +25181,12 @@
         <v>17</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="13" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B143" s="14">
         <v>3</v>
@@ -25575,12 +25195,12 @@
         <v>27</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="13" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B144" s="14">
         <v>4</v>
@@ -25589,12 +25209,12 @@
         <v>24</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="13" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="B145" s="14">
         <v>1</v>
@@ -25603,12 +25223,12 @@
         <v>12</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="13" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="B146" s="14">
         <v>2</v>
@@ -25617,12 +25237,12 @@
         <v>15</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="13" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="B147" s="14">
         <v>3</v>
@@ -25631,12 +25251,12 @@
         <v>25</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="13" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="B148" s="14">
         <v>1</v>
@@ -25645,12 +25265,12 @@
         <v>10</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="13" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="B149" s="14">
         <v>2</v>
@@ -25659,12 +25279,12 @@
         <v>17</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="13" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="B150" s="14">
         <v>3</v>
@@ -25673,12 +25293,12 @@
         <v>27</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="13" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="B151" s="14">
         <v>4</v>
@@ -25687,12 +25307,12 @@
         <v>24</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="13" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="B152" s="14">
         <v>1</v>
@@ -25701,12 +25321,12 @@
         <v>40</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="13" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="B153" s="14">
         <v>2</v>
@@ -25715,12 +25335,12 @@
         <v>15</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="13" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="B154" s="14">
         <v>3</v>
@@ -25729,12 +25349,12 @@
         <v>28</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="13" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="B155" s="14">
         <v>4</v>
@@ -25743,12 +25363,12 @@
         <v>16</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="13" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="B156" s="14">
         <v>1</v>
@@ -25757,12 +25377,12 @@
         <v>10</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="13" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="B157" s="14">
         <v>2</v>
@@ -25771,12 +25391,12 @@
         <v>17</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="13" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="B158" s="14">
         <v>3</v>
@@ -25785,12 +25405,12 @@
         <v>27</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="13" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="B159" s="14">
         <v>4</v>
@@ -25799,12 +25419,12 @@
         <v>24</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="13" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B160" s="14">
         <v>1</v>
@@ -25813,12 +25433,12 @@
         <v>12</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="13" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B161" s="14">
         <v>2</v>
@@ -25827,12 +25447,12 @@
         <v>15</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="13" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B162" s="14">
         <v>3</v>
@@ -25841,12 +25461,12 @@
         <v>41</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="13" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B163" s="14">
         <v>4</v>
@@ -25855,12 +25475,12 @@
         <v>56</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="13" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B164" s="14">
         <v>0</v>
@@ -25869,12 +25489,12 @@
         <v>42</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="13" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B165" s="14">
         <v>1</v>
@@ -25883,12 +25503,12 @@
         <v>18</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="13" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B166" s="14">
         <v>2</v>
@@ -25897,12 +25517,12 @@
         <v>46</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="13" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B167" s="14">
         <v>3</v>
@@ -25911,12 +25531,12 @@
         <v>29</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>513</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="13" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B168" s="14">
         <v>4</v>
@@ -25925,12 +25545,12 @@
         <v>65</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="13" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B169" s="14">
         <v>5</v>
@@ -25939,12 +25559,12 @@
         <v>153</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>512</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="13" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B170" s="14">
         <v>1</v>
@@ -25953,12 +25573,12 @@
         <v>19</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="13" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B171" s="14">
         <v>2</v>
@@ -25967,12 +25587,12 @@
         <v>30</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="13" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B172" s="14">
         <v>3</v>
@@ -25981,12 +25601,12 @@
         <v>47</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="13" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B173" s="14">
         <v>4</v>
@@ -25995,7 +25615,7 @@
         <v>57</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/data/TFEQ.xlsx
+++ b/data/TFEQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thier\Documents\R\i2ds4scc_bookdown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12D321-0097-422F-AC68-AB06BD55B884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D30DB2-8E5D-4FC1-8E94-A3D7B1BB6F7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="5310" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="5310" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -18,234 +18,48 @@
     <sheet name="Levels" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Levels!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Levels!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="452">
-  <si>
-    <t>Zone urbaine</t>
-  </si>
-  <si>
-    <t>Appartement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="372">
   <si>
     <t>J48</t>
   </si>
   <si>
-    <t>Divorcé(e)</t>
-  </si>
-  <si>
-    <t>Moins de 1200€</t>
-  </si>
-  <si>
-    <t>Employés administratifs d'entreprise</t>
-  </si>
-  <si>
-    <t>Bac</t>
-  </si>
-  <si>
-    <t>Faux</t>
-  </si>
-  <si>
-    <t>Vrai</t>
-  </si>
-  <si>
-    <t>1-	Rarement</t>
-  </si>
-  <si>
-    <t>1-	Pas du tout</t>
-  </si>
-  <si>
-    <t>2-	Parfois entre les repas</t>
-  </si>
-  <si>
-    <t>1-	Jamais</t>
-  </si>
-  <si>
-    <t>1-	Absolument pas difficile</t>
-  </si>
-  <si>
-    <t>4-	Extrêmement</t>
-  </si>
-  <si>
-    <t>2-	Rarement</t>
-  </si>
-  <si>
-    <t>4-	Presque tous les jours</t>
-  </si>
-  <si>
-    <t>2-	Un peu</t>
-  </si>
-  <si>
-    <t>1= vous mangez habituellement ce que vous voulez, quand vous le voulez</t>
-  </si>
-  <si>
-    <t>1-	Cela ne me ressemble pas</t>
-  </si>
-  <si>
     <t>J61</t>
   </si>
   <si>
-    <t>Marié(e)</t>
-  </si>
-  <si>
-    <t>De 2000 à 4000€</t>
-  </si>
-  <si>
-    <t>Employés de la fonction publique</t>
-  </si>
-  <si>
-    <t>4-	Beaucoup</t>
-  </si>
-  <si>
-    <t>3-	Souvent</t>
-  </si>
-  <si>
-    <t>4-	Presque toujours</t>
-  </si>
-  <si>
-    <t>3-	Moyennement</t>
-  </si>
-  <si>
-    <t>3-	Au moins une fois par semaine</t>
-  </si>
-  <si>
-    <t>3= vous limitez souvent votre alimentation mais vous "craquez" souvent</t>
-  </si>
-  <si>
-    <t>2-	Cela me ressemble un peu</t>
-  </si>
-  <si>
-    <t>Zone rurbaine</t>
-  </si>
-  <si>
-    <t>Maison individuelle</t>
-  </si>
-  <si>
     <t>J60</t>
   </si>
   <si>
-    <t>Vivant maritalement</t>
-  </si>
-  <si>
-    <t>Artisans</t>
-  </si>
-  <si>
-    <t>CAP, BT, BET, BEP</t>
-  </si>
-  <si>
-    <t>3-	Souvent entre les repas</t>
-  </si>
-  <si>
-    <t>3-	Moyennement difficile</t>
-  </si>
-  <si>
-    <t>2-	Légèrement</t>
-  </si>
-  <si>
-    <t>1-	Presque jamais</t>
-  </si>
-  <si>
-    <t>3-	Parfois</t>
-  </si>
-  <si>
-    <t>0= vous mangez ce que vous voulez, quand vous le voulez</t>
-  </si>
-  <si>
     <t>J97</t>
   </si>
   <si>
-    <t>Inactifs divers (autres que retraités et étudiants)</t>
-  </si>
-  <si>
-    <t>3-	La plupart du temps</t>
-  </si>
-  <si>
-    <t>2= vous mangez souvent ce que vous voulez, quand vous le voulez</t>
-  </si>
-  <si>
-    <t>3-	Cela me décrit assez bien</t>
-  </si>
-  <si>
     <t>J38</t>
   </si>
   <si>
-    <t>1-	Seulement au moment des repas</t>
-  </si>
-  <si>
     <t>J26</t>
   </si>
   <si>
-    <t>De 1200 à 2000€</t>
-  </si>
-  <si>
-    <t>Techniciens</t>
-  </si>
-  <si>
-    <t>BTS, DEUG</t>
-  </si>
-  <si>
-    <t>2-	Parfois</t>
-  </si>
-  <si>
-    <t>2-	Quelque peu difficile</t>
-  </si>
-  <si>
-    <t>4-	Au moins une fois par semaine</t>
-  </si>
-  <si>
-    <t>4-	Cela me décrit parfaitement</t>
-  </si>
-  <si>
     <t>J103</t>
   </si>
   <si>
-    <t>Célibataire</t>
-  </si>
-  <si>
-    <t>4-	Très difficile</t>
-  </si>
-  <si>
     <t>J91</t>
   </si>
   <si>
-    <t>Pacsé(e)</t>
-  </si>
-  <si>
-    <t>Etudiants</t>
-  </si>
-  <si>
-    <t>Licence, maîtrise (bac +3 ou 4)</t>
-  </si>
-  <si>
-    <t>4= vous limitez habituellement votre alimentation et vous "craquez" rarement</t>
-  </si>
-  <si>
-    <t>Zone rurale</t>
-  </si>
-  <si>
     <t>J13</t>
   </si>
   <si>
-    <t>Ouvriers qualifiés</t>
-  </si>
-  <si>
     <t>J73</t>
   </si>
   <si>
-    <t>Professions intermédiaires de l'enseignement, de la santé, de la fonction publique et assimilés</t>
-  </si>
-  <si>
     <t>J49</t>
   </si>
   <si>
-    <t>Employés de commerce</t>
-  </si>
-  <si>
     <t>J62</t>
   </si>
   <si>
@@ -264,12 +78,6 @@
     <t>J74</t>
   </si>
   <si>
-    <t>Cadres de la fonction publique, professions intellectuelles et artistiques</t>
-  </si>
-  <si>
-    <t>DEA, doctorat, diplôme supérieur</t>
-  </si>
-  <si>
     <t>J64</t>
   </si>
   <si>
@@ -291,24 +99,15 @@
     <t>J65</t>
   </si>
   <si>
-    <t>Professions intermédiaires administratives et commerciales des entreprises</t>
-  </si>
-  <si>
     <t>J63</t>
   </si>
   <si>
-    <t>Plus de 4000€</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
     <t>J24</t>
   </si>
   <si>
-    <t>Première, terminale</t>
-  </si>
-  <si>
     <t>J27</t>
   </si>
   <si>
@@ -327,15 +126,9 @@
     <t>J66</t>
   </si>
   <si>
-    <t>Personnels des services directs aux particuliers</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
-    <t>Séparé(e)</t>
-  </si>
-  <si>
     <t>J67</t>
   </si>
   <si>
@@ -348,9 +141,6 @@
     <t>J90</t>
   </si>
   <si>
-    <t>4-	Toujours</t>
-  </si>
-  <si>
     <t>J92</t>
   </si>
   <si>
@@ -366,15 +156,9 @@
     <t>J69</t>
   </si>
   <si>
-    <t>Cadres d'entreprise</t>
-  </si>
-  <si>
     <t>J85</t>
   </si>
   <si>
-    <t>Commerçants et assimilés</t>
-  </si>
-  <si>
     <t>J101</t>
   </si>
   <si>
@@ -390,9 +174,6 @@
     <t>J109</t>
   </si>
   <si>
-    <t>Ouvriers non qualifiés</t>
-  </si>
-  <si>
     <t>J8</t>
   </si>
   <si>
@@ -432,9 +213,6 @@
     <t>J96</t>
   </si>
   <si>
-    <t>Veuf(ve)</t>
-  </si>
-  <si>
     <t>J118</t>
   </si>
   <si>
@@ -456,9 +234,6 @@
     <t>J41</t>
   </si>
   <si>
-    <t>Professions libérales et assimilés</t>
-  </si>
-  <si>
     <t>J9</t>
   </si>
   <si>
@@ -486,9 +261,6 @@
     <t>J32</t>
   </si>
   <si>
-    <t>5= vous limitez constamment votre alimentation et vous ne craquez jamais</t>
-  </si>
-  <si>
     <t>J81</t>
   </si>
   <si>
@@ -525,9 +297,6 @@
     <t>J46</t>
   </si>
   <si>
-    <t>Anciens employés et ouvriers</t>
-  </si>
-  <si>
     <t>J20</t>
   </si>
   <si>
@@ -825,9 +594,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>When I smell a sizzling steak or a juicy piece of meat, I find it very difficult to keep from eating, even if I have just finished a meal.</t>
   </si>
   <si>
@@ -1008,18 +774,12 @@
     <t>Conjugal</t>
   </si>
   <si>
-    <t>Company Admin</t>
-  </si>
-  <si>
     <t>Public Service</t>
   </si>
   <si>
     <t>Artisan</t>
   </si>
   <si>
-    <t>Unactive</t>
-  </si>
-  <si>
     <t>Technician</t>
   </si>
   <si>
@@ -1062,12 +822,6 @@
     <t>11th and 12th grade</t>
   </si>
   <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
     <t>High School Diploma</t>
   </si>
   <si>
@@ -1353,18 +1107,6 @@
     <t>Full Question</t>
   </si>
   <si>
-    <t>Original Levels (French)</t>
-  </si>
-  <si>
-    <t>no_name1</t>
-  </si>
-  <si>
-    <t>no_name2</t>
-  </si>
-  <si>
-    <t>Note at All</t>
-  </si>
-  <si>
     <t>I eat what I want when I want</t>
   </si>
   <si>
@@ -1374,23 +1116,48 @@
     <t>I often eat what I want when I want</t>
   </si>
   <si>
-    <t>I always limit what I eat and never break down</t>
-  </si>
-  <si>
-    <t>I often limit what I eat although I often break down</t>
-  </si>
-  <si>
-    <t>I usually limit what I eat and barely never break down</t>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>University of Applied Science</t>
+  </si>
+  <si>
+    <t>Applied High School Diploma</t>
+  </si>
+  <si>
+    <t>Undergraduate Degree</t>
+  </si>
+  <si>
+    <t>Graduate Degree</t>
+  </si>
+  <si>
+    <t>Middle Management</t>
+  </si>
+  <si>
+    <t>I often limit what I eat although I often give in</t>
+  </si>
+  <si>
+    <t>I usually limit what I eat and barely never give in</t>
+  </si>
+  <si>
+    <t>I always limit what I eat and never give in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1513,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1522,22 +1289,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1871,190 +1639,190 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="BG1" s="5" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="BI1" s="5" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.45">
@@ -2065,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <v>1.45</v>
@@ -2253,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>1.6</v>
@@ -2441,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8">
         <v>1.62</v>
@@ -2629,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D5" s="8">
         <v>1.6</v>
@@ -2817,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8">
         <v>1.69</v>
@@ -3005,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8">
         <v>1.62</v>
@@ -3193,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8">
         <v>1.58</v>
@@ -3381,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8">
         <v>1.6</v>
@@ -3569,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8">
         <v>1.56</v>
@@ -3757,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8">
         <v>1.67</v>
@@ -3945,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D12" s="8">
         <v>1.65</v>
@@ -4133,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="8">
         <v>1.6</v>
@@ -4321,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D14" s="8">
         <v>1.6</v>
@@ -4509,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D15" s="8">
         <v>1.7</v>
@@ -4697,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D16" s="8">
         <v>1.58</v>
@@ -4885,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8">
         <v>1.61</v>
@@ -5073,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8">
         <v>1.7</v>
@@ -5261,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8">
         <v>1.76</v>
@@ -5449,7 +5217,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D20" s="8">
         <v>1.7</v>
@@ -5637,7 +5405,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="D21" s="8">
         <v>1.64</v>
@@ -5825,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D22" s="8">
         <v>1.68</v>
@@ -6013,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D23" s="8">
         <v>1.7</v>
@@ -6201,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D24" s="8">
         <v>1.6</v>
@@ -6389,7 +6157,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D25" s="8">
         <v>1.65</v>
@@ -6577,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D26" s="8">
         <v>1.68</v>
@@ -6765,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D27" s="8">
         <v>1.72</v>
@@ -6953,7 +6721,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D28" s="8">
         <v>1.55</v>
@@ -7141,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D29" s="8">
         <v>1.69</v>
@@ -7329,7 +7097,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D30" s="8">
         <v>1.58</v>
@@ -7517,7 +7285,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D31" s="8">
         <v>1.65</v>
@@ -7705,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D32" s="8">
         <v>1.6</v>
@@ -7893,7 +7661,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D33" s="8">
         <v>1.7</v>
@@ -8081,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D34" s="8">
         <v>1.55</v>
@@ -8269,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D35" s="8">
         <v>1.57</v>
@@ -8457,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D36" s="8">
         <v>1.65</v>
@@ -8645,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D37" s="8">
         <v>1.6</v>
@@ -8833,7 +8601,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="D38" s="8">
         <v>1.69</v>
@@ -9021,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D39" s="8">
         <v>1.6</v>
@@ -9209,7 +8977,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D40" s="8">
         <v>1.68</v>
@@ -9397,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D41" s="8">
         <v>1.56</v>
@@ -9585,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D42" s="8">
         <v>1.6</v>
@@ -9773,7 +9541,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D43" s="8">
         <v>1.64</v>
@@ -9961,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D44" s="8">
         <v>1.65</v>
@@ -10149,7 +9917,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D45" s="8">
         <v>1.62</v>
@@ -10337,7 +10105,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="D46" s="8">
         <v>1.61</v>
@@ -10525,7 +10293,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D47" s="8">
         <v>1.68</v>
@@ -10713,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D48" s="8">
         <v>1.62</v>
@@ -10901,7 +10669,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D49" s="8">
         <v>1.68</v>
@@ -11089,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D50" s="8">
         <v>1.6</v>
@@ -11277,7 +11045,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="D51" s="8">
         <v>1.7</v>
@@ -11465,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="D52" s="8">
         <v>1.68</v>
@@ -11653,7 +11421,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="D53" s="8">
         <v>1.54</v>
@@ -11841,7 +11609,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D54" s="8">
         <v>1.68</v>
@@ -12029,7 +11797,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="D55" s="8">
         <v>1.69</v>
@@ -12217,7 +11985,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D56" s="8">
         <v>1.64</v>
@@ -12405,7 +12173,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="D57" s="8">
         <v>1.65</v>
@@ -12593,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="D58" s="8">
         <v>1.65</v>
@@ -12781,7 +12549,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="D59" s="8">
         <v>1.63</v>
@@ -12969,7 +12737,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="D60" s="8">
         <v>1.7</v>
@@ -13157,7 +12925,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="D61" s="8">
         <v>1.59</v>
@@ -13345,7 +13113,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D62" s="8">
         <v>1.51</v>
@@ -13533,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="D63" s="8">
         <v>1.56</v>
@@ -13721,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="D64" s="8">
         <v>1.6</v>
@@ -13909,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="D65" s="8">
         <v>1.8</v>
@@ -14097,7 +13865,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="D66" s="8">
         <v>1.5</v>
@@ -14285,7 +14053,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="D67" s="8">
         <v>1.56</v>
@@ -14473,7 +14241,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="D68" s="8">
         <v>1.76</v>
@@ -14661,7 +14429,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="D69" s="8">
         <v>1.7</v>
@@ -14849,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="D70" s="8">
         <v>1.73</v>
@@ -15037,7 +14805,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D71" s="8">
         <v>1.56</v>
@@ -15225,7 +14993,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="D72" s="8">
         <v>1.6</v>
@@ -15413,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="D73" s="8">
         <v>1.73</v>
@@ -15601,7 +15369,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="D74" s="8">
         <v>1.65</v>
@@ -15789,7 +15557,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D75" s="8">
         <v>1.6</v>
@@ -15977,7 +15745,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D76" s="8">
         <v>1.59</v>
@@ -16165,7 +15933,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D77" s="8">
         <v>1.63</v>
@@ -16353,7 +16121,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D78" s="8">
         <v>1.7</v>
@@ -16541,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D79" s="8">
         <v>1.68</v>
@@ -16729,7 +16497,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D80" s="8">
         <v>1.6</v>
@@ -16917,7 +16685,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="D81" s="8">
         <v>1.6</v>
@@ -17105,7 +16873,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="D82" s="8">
         <v>1.7</v>
@@ -17293,7 +17061,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="D83" s="8">
         <v>1.66</v>
@@ -17481,7 +17249,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="D84" s="8">
         <v>1.63</v>
@@ -17669,7 +17437,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="D85" s="8">
         <v>1.69</v>
@@ -17857,7 +17625,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="D86" s="8">
         <v>1.75</v>
@@ -18045,7 +17813,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="D87" s="8">
         <v>1.63</v>
@@ -18233,7 +18001,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="D88" s="8">
         <v>1.65</v>
@@ -18421,7 +18189,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D89" s="8">
         <v>1.64</v>
@@ -18609,7 +18377,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="D90" s="8">
         <v>1.6</v>
@@ -18797,7 +18565,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="D91" s="8">
         <v>1.6</v>
@@ -18985,7 +18753,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="D92" s="8">
         <v>1.68</v>
@@ -19173,7 +18941,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="D93" s="8">
         <v>1.64</v>
@@ -19361,7 +19129,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="D94" s="8">
         <v>1.54</v>
@@ -19549,7 +19317,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="D95" s="8">
         <v>1.61</v>
@@ -19737,7 +19505,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="D96" s="8">
         <v>1.65</v>
@@ -19925,7 +19693,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="D97" s="8">
         <v>1.68</v>
@@ -20113,7 +19881,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="D98" s="8">
         <v>1.48</v>
@@ -20301,7 +20069,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="D99" s="8">
         <v>1.6</v>
@@ -20489,7 +20257,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="D100" s="8">
         <v>1.72</v>
@@ -20677,7 +20445,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="D101" s="8">
         <v>1.69</v>
@@ -20865,7 +20633,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D102" s="8">
         <v>1.6</v>
@@ -21053,7 +20821,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="D103" s="8">
         <v>1.6</v>
@@ -21241,7 +21009,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="D104" s="8">
         <v>1.65</v>
@@ -21429,7 +21197,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="D105" s="8">
         <v>1.63</v>
@@ -21617,7 +21385,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="D106" s="8">
         <v>1.53</v>
@@ -21805,7 +21573,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="D107" s="8">
         <v>1.72</v>
@@ -21993,7 +21761,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="D108" s="10">
         <v>1.53</v>
@@ -22182,7 +21950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -22199,979 +21967,979 @@
   <sheetData>
     <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>435</v>
+        <v>353</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="C20" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="C26" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>412</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="C29" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="C32" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
+        <v>309</v>
       </c>
       <c r="C33" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="C34" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="C35" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="C36" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="C37" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="C38" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="C39" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>393</v>
+        <v>311</v>
       </c>
       <c r="C40" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>430</v>
+        <v>348</v>
       </c>
       <c r="C41" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>394</v>
+        <v>312</v>
       </c>
       <c r="C42" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="C43" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="C44" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="C45" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="C46" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="C47" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="C48" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="C49" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>317</v>
       </c>
       <c r="C50" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>432</v>
+        <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D51" s="3">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>400</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>433</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>401</v>
+        <v>319</v>
       </c>
       <c r="C54" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="C55" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="C57" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="C58" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="D59" s="3">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="C60" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="C61" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="C62" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D62" s="3">
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="D63" s="3">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -23182,2444 +22950,1924 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E7BF39-2536-4AEE-968A-3358CEB4DA2C}">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:D173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="14">
-        <v>2</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="14">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="14">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="B10" s="14">
         <v>4</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C10" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="B11" s="14">
         <v>5</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C11" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="B12" s="14">
         <v>6</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C12" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="B13" s="14">
         <v>7</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C13" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C14" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C15" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B16" s="14">
         <v>3</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B17" s="14">
         <v>4</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C17" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C18" s="18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C19" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C20" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B21" s="14">
         <v>4</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C21" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B22" s="14">
         <v>5</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B23" s="14">
         <v>6</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C23" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B24" s="14">
         <v>7</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C24" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B25" s="14">
         <v>8</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C25" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B26" s="14">
         <v>9</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C26" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B27" s="14">
         <v>10</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C27" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B28" s="14">
         <v>11</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C28" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B29" s="14">
         <v>12</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C29" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B30" s="14">
         <v>13</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C30" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B31" s="14">
         <v>14</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C31" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B32" s="14">
         <v>15</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C32" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B33" s="14">
         <v>16</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C33" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B34" s="14">
         <v>17</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C34" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B35" s="14">
         <v>1</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C35" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B36" s="14">
         <v>2</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C36" s="17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B37" s="14">
         <v>3</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C37" s="17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B38" s="14">
         <v>4</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C38" s="18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B39" s="14">
         <v>5</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C39" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B40" s="14">
         <v>6</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C40" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="B41" s="14">
         <v>0</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C41" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="B42" s="14">
         <v>1</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C42" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="B43" s="14">
         <v>0</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C43" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="B44" s="14">
         <v>1</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C44" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="B45" s="14">
         <v>0</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C45" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="B46" s="14">
         <v>1</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C46" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="B47" s="14">
         <v>0</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C47" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="B48" s="14">
         <v>1</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C48" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="B49" s="14">
         <v>0</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C49" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="B50" s="14">
         <v>1</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C50" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="B51" s="14">
         <v>0</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C51" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="B52" s="14">
         <v>1</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C52" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="B53" s="14">
         <v>0</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C53" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="B54" s="14">
         <v>1</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C54" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="B55" s="14">
         <v>0</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C55" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="B56" s="14">
         <v>1</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C56" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="B57" s="14">
         <v>0</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C57" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="B58" s="14">
         <v>1</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C58" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="B59" s="14">
         <v>0</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C59" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="B60" s="14">
         <v>1</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C60" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="B61" s="14">
         <v>0</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C61" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="B62" s="14">
         <v>1</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C62" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="B63" s="14">
         <v>0</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C63" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="B64" s="14">
         <v>1</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C64" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="B65" s="14">
         <v>0</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C65" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="B66" s="14">
         <v>1</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C66" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="B67" s="14">
         <v>0</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C67" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="B68" s="14">
         <v>1</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C68" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="B69" s="14">
         <v>0</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C69" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="B70" s="14">
         <v>1</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C70" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="B71" s="14">
         <v>0</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C71" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="B72" s="14">
         <v>1</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C72" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="B73" s="14">
         <v>0</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C73" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="B74" s="14">
         <v>1</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C74" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="B75" s="14">
         <v>0</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C75" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="B76" s="14">
         <v>1</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C76" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="B77" s="14">
         <v>0</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C77" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="B78" s="14">
         <v>1</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C78" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="B79" s="14">
         <v>0</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C79" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="B80" s="14">
         <v>1</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C80" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="B81" s="14">
         <v>0</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C81" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="B82" s="14">
         <v>1</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C82" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="B83" s="14">
         <v>0</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C83" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="B84" s="14">
         <v>1</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C84" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="B85" s="14">
         <v>0</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C85" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="B86" s="14">
         <v>1</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C86" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="B87" s="14">
         <v>0</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C87" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="B88" s="14">
         <v>1</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C88" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="B89" s="14">
         <v>0</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C89" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="B90" s="14">
         <v>1</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C90" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="B91" s="14">
         <v>0</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C91" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="B92" s="14">
         <v>1</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C92" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="B93" s="14">
         <v>0</v>
       </c>
-      <c r="C93" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C93" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="B94" s="14">
         <v>1</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C94" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="B95" s="14">
         <v>0</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C95" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="B96" s="14">
         <v>1</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C96" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="B97" s="14">
         <v>0</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C97" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="13" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="B98" s="14">
         <v>1</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C98" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="13" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="B99" s="14">
         <v>0</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C99" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="13" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="B100" s="14">
         <v>1</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C100" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="13" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="B101" s="14">
         <v>0</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C101" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="13" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="B102" s="14">
         <v>1</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C102" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="B103" s="14">
         <v>0</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C103" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="B104" s="14">
         <v>1</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C104" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="13" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="B105" s="14">
         <v>0</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C105" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="B106" s="14">
         <v>1</v>
       </c>
-      <c r="C106" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C106" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="13" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="B107" s="14">
         <v>0</v>
       </c>
-      <c r="C107" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C107" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="13" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="B108" s="14">
         <v>1</v>
       </c>
-      <c r="C108" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C108" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="B109" s="14">
         <v>0</v>
       </c>
-      <c r="C109" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C109" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="B110" s="14">
         <v>1</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C110" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="B111" s="14">
         <v>0</v>
       </c>
-      <c r="C111" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C111" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="B112" s="14">
         <v>1</v>
       </c>
-      <c r="C112" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C112" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B113" s="14">
         <v>1</v>
       </c>
-      <c r="C113" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C113" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B114" s="14">
         <v>2</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C114" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B115" s="14">
         <v>3</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C115" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="13" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B116" s="14">
         <v>4</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C116" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="B117" s="14">
         <v>1</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C117" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="13" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="B118" s="14">
         <v>2</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C118" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="B119" s="14">
         <v>3</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C119" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="13" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="B120" s="14">
         <v>4</v>
       </c>
-      <c r="C120" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C120" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="B121" s="14">
         <v>1</v>
       </c>
-      <c r="C121" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="15" t="s">
+      <c r="C121" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="14">
+        <v>2</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="14">
+        <v>3</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="14">
+        <v>4</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="14">
+        <v>1</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="14">
+        <v>2</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="14">
+        <v>3</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="14">
+        <v>4</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" s="14">
+        <v>1</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="14">
+        <v>2</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="14">
+        <v>3</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="14">
+        <v>4</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="14">
+        <v>1</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="14">
+        <v>2</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="14">
+        <v>3</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="14">
+        <v>4</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B137" s="14">
+        <v>1</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="14">
+        <v>2</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="14">
+        <v>3</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="14">
+        <v>4</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="14">
+        <v>1</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="14">
+        <v>2</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" s="14">
+        <v>3</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="14">
+        <v>4</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" s="14">
+        <v>1</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="14">
+        <v>2</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="14">
+        <v>3</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B148" s="14">
+        <v>1</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B149" s="14">
+        <v>2</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" s="14">
+        <v>3</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151" s="14">
+        <v>4</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" s="14">
+        <v>1</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" s="14">
+        <v>2</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="14">
+        <v>3</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="14">
+        <v>4</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="14">
+        <v>1</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="14">
+        <v>2</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" s="14">
+        <v>3</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="14">
+        <v>4</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" s="14">
+        <v>1</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="14">
+        <v>2</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" s="14">
+        <v>3</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="14">
+        <v>4</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="14">
+        <v>0</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="14">
+        <v>1</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A122" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" s="14">
-        <v>2</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A123" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B123" s="14">
-        <v>3</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A124" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B124" s="14">
-        <v>4</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124" s="15" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" s="14">
+        <v>2</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A125" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B125" s="14">
-        <v>1</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A126" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B126" s="14">
-        <v>2</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A127" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B127" s="14">
-        <v>3</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A128" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B128" s="14">
-        <v>4</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A129" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B129" s="14">
-        <v>1</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A130" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B130" s="14">
-        <v>2</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A131" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B131" s="14">
-        <v>3</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A132" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B132" s="14">
-        <v>4</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A133" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B133" s="14">
-        <v>1</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A134" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B134" s="14">
-        <v>2</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A135" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B135" s="14">
-        <v>3</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A136" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B136" s="14">
-        <v>4</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="15" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="14">
+        <v>3</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A137" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B137" s="14">
-        <v>1</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A138" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B138" s="14">
-        <v>2</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A139" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B139" s="14">
-        <v>3</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A140" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B140" s="14">
-        <v>4</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" s="15" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="14">
+        <v>4</v>
+      </c>
+      <c r="C168" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A141" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B141" s="14">
-        <v>1</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A142" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B142" s="14">
-        <v>2</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A143" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B143" s="14">
-        <v>3</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A144" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B144" s="14">
-        <v>4</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A145" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B145" s="14">
-        <v>1</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A146" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B146" s="14">
-        <v>2</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A147" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B147" s="14">
-        <v>3</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A148" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B148" s="14">
-        <v>1</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A149" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B149" s="14">
-        <v>2</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A150" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B150" s="14">
-        <v>3</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A151" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B151" s="14">
-        <v>4</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A152" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B152" s="14">
-        <v>1</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A153" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B153" s="14">
-        <v>2</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A154" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B154" s="14">
-        <v>3</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B155" s="14">
-        <v>4</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A156" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B156" s="14">
-        <v>1</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B157" s="14">
-        <v>2</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A158" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B158" s="14">
-        <v>3</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A159" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B159" s="14">
-        <v>4</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A160" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B160" s="14">
-        <v>1</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A161" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B161" s="14">
-        <v>2</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A162" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B162" s="14">
-        <v>3</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A163" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B163" s="14">
-        <v>4</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A164" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B164" s="14">
-        <v>0</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A165" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B165" s="14">
-        <v>1</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A166" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B166" s="14">
-        <v>2</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A167" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B167" s="14">
-        <v>3</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A168" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B168" s="14">
-        <v>4</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="13" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="B169" s="14">
         <v>5</v>
       </c>
-      <c r="C169" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C169" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="13" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="B170" s="14">
         <v>1</v>
       </c>
-      <c r="C170" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C170" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="13" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="B171" s="14">
         <v>2</v>
       </c>
-      <c r="C171" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D171" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C171" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="13" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="B172" s="14">
         <v>3</v>
       </c>
-      <c r="C172" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C172" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="13" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="B173" s="14">
         <v>4</v>
       </c>
-      <c r="C173" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>383</v>
+      <c r="C173" s="15" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
